--- a/testSolutions/MinReduceWald.xlsx
+++ b/testSolutions/MinReduceWald.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/melanie_stach_hpe_com/Documents/Documents/02_Theorie/6.Semester/KI/Lösungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetzelm\OneDrive - Hewlett Packard Enterprise\DHBW\KI\a-star-algorithm\testSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D58F4EE0-A004-4CDA-BA31-2A8F52CE0429}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DA131016-E065-42A7-BDFA-276A95D335BF}"/>
   <bookViews>
-    <workbookView xWindow="10531" yWindow="-11713" windowWidth="20848" windowHeight="11208" xr2:uid="{1E7BF5CF-2EB9-482F-9698-BFF266FC9209}"/>
+    <workbookView xWindow="10530" yWindow="-11710" windowWidth="20850" windowHeight="11210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -65,11 +64,14 @@
   <si>
     <t>Felswand</t>
   </si>
+  <si>
+    <t>Prüft, ob der Weg über den Wald gewählt wird, um die Exhaustion Points zu reduzieren, obwohl der wald teurer ist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A13513-A373-4E9A-AD9B-C9D775FBD59E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2</v>
       </c>
@@ -478,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -525,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -572,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -619,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -666,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -713,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -760,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -807,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -854,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -901,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -948,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -995,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1042,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1208,8 +1210,11 @@
       <c r="C21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1237,6 +1242,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FBF8661AD2E354FAE87329803412157" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16c4dd9e2e32f088242a579a7e24e23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e44a191-92cd-4afa-9687-f5bf1469df19" xmlns:ns4="6b5e8f27-ce12-4388-9f1e-22f0df822b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25951810f8527d332c4c5b5f678f3a0e" ns3:_="" ns4:_="">
     <xsd:import namespace="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
@@ -1459,22 +1479,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58899910-4DEF-4C3C-9C79-3B3468CA2F2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED4E6E0-6E63-4697-8E4A-2DDE6E062374}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B86E65-CBD7-4D1C-9B3E-9BA975B3222C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1491,29 +1521,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED4E6E0-6E63-4697-8E4A-2DDE6E062374}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58899910-4DEF-4C3C-9C79-3B3468CA2F2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>